--- a/Design/SurveySchema.xlsx
+++ b/Design/SurveySchema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniofbuck-my.sharepoint.com/personal/1910332_buckingham_ac_uk/Documents/Assignments/Final Project/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F81D4C29-1087-45C5-95FC-1BE1D4251965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{F81D4C29-1087-45C5-95FC-1BE1D4251965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FDACEBF9-25B0-4C5F-B955-6E46A09C5AB1}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="630" windowWidth="25440" windowHeight="15390" xr2:uid="{6C739B92-374B-4F01-8482-D05F147688E6}"/>
+    <workbookView minimized="1" xWindow="-23490" yWindow="3210" windowWidth="18900" windowHeight="11055" xr2:uid="{6C739B92-374B-4F01-8482-D05F147688E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -105,16 +105,10 @@
     <t>Field Name</t>
   </si>
   <si>
-    <t>Used In Project</t>
-  </si>
-  <si>
     <t>Data Type</t>
   </si>
   <si>
     <t xml:space="preserve">Description </t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>General (Text)</t>
@@ -218,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -228,59 +222,17 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -289,20 +241,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -619,291 +569,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C02809F-D333-4303-BA3D-3B082E29594B}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="91" customWidth="1"/>
-    <col min="5" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="1" customWidth="1"/>
+    <col min="4" max="9" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>